--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Spp1-Itgav.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Spp1-Itgav.xlsx
@@ -531,22 +531,22 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>12.486902</v>
+        <v>2.276052666666667</v>
       </c>
       <c r="H2">
-        <v>37.460706</v>
+        <v>6.828158</v>
       </c>
       <c r="I2">
-        <v>0.01504353194025314</v>
+        <v>0.005247614157263819</v>
       </c>
       <c r="J2">
-        <v>0.01504353194025314</v>
+        <v>0.005247614157263819</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>13.441269</v>
+        <v>8.820647333333334</v>
       </c>
       <c r="N2">
-        <v>40.323807</v>
+        <v>26.461942</v>
       </c>
       <c r="O2">
-        <v>0.08973082133481231</v>
+        <v>0.06415146660411865</v>
       </c>
       <c r="P2">
-        <v>0.08973082133481231</v>
+        <v>0.06415146660411865</v>
       </c>
       <c r="Q2">
-        <v>167.839808758638</v>
+        <v>20.07625788475956</v>
       </c>
       <c r="R2">
-        <v>1510.558278827742</v>
+        <v>180.686320962836</v>
       </c>
       <c r="S2">
-        <v>0.001349868476775397</v>
+        <v>0.0003366421443610101</v>
       </c>
       <c r="T2">
-        <v>0.001349868476775397</v>
+        <v>0.0003366421443610101</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,22 +593,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>12.486902</v>
+        <v>2.276052666666667</v>
       </c>
       <c r="H3">
-        <v>37.460706</v>
+        <v>6.828158</v>
       </c>
       <c r="I3">
-        <v>0.01504353194025314</v>
+        <v>0.005247614157263819</v>
       </c>
       <c r="J3">
-        <v>0.01504353194025314</v>
+        <v>0.005247614157263819</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>164.134605</v>
       </c>
       <c r="O3">
-        <v>0.3652416280068742</v>
+        <v>0.3979101621202897</v>
       </c>
       <c r="P3">
-        <v>0.3652416280068742</v>
+        <v>0.3979101621202898</v>
       </c>
       <c r="Q3">
-        <v>683.17757581457</v>
+        <v>124.5263351341767</v>
       </c>
       <c r="R3">
-        <v>6148.59818233113</v>
+        <v>1120.73701620759</v>
       </c>
       <c r="S3">
-        <v>0.005494524096831466</v>
+        <v>0.002088079000061574</v>
       </c>
       <c r="T3">
-        <v>0.005494524096831467</v>
+        <v>0.002088079000061574</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,22 +655,22 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>12.486902</v>
+        <v>2.276052666666667</v>
       </c>
       <c r="H4">
-        <v>37.460706</v>
+        <v>6.828158</v>
       </c>
       <c r="I4">
-        <v>0.01504353194025314</v>
+        <v>0.005247614157263819</v>
       </c>
       <c r="J4">
-        <v>0.01504353194025314</v>
+        <v>0.005247614157263819</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>17.96553866666666</v>
+        <v>21.90816333333333</v>
       </c>
       <c r="N4">
-        <v>53.89661599999999</v>
+        <v>65.72449</v>
       </c>
       <c r="O4">
-        <v>0.119933805378222</v>
+        <v>0.1593353362087987</v>
       </c>
       <c r="P4">
-        <v>0.119933805378222</v>
+        <v>0.1593353362087987</v>
       </c>
       <c r="Q4">
-        <v>224.3339207078773</v>
+        <v>49.86413357660223</v>
       </c>
       <c r="R4">
-        <v>2019.005286370896</v>
+        <v>448.7772021894201</v>
       </c>
       <c r="S4">
-        <v>0.001804228031923386</v>
+        <v>0.0008361303660416822</v>
       </c>
       <c r="T4">
-        <v>0.001804228031923386</v>
+        <v>0.0008361303660416823</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,22 +717,22 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G5">
-        <v>12.486902</v>
+        <v>2.276052666666667</v>
       </c>
       <c r="H5">
-        <v>37.460706</v>
+        <v>6.828158</v>
       </c>
       <c r="I5">
-        <v>0.01504353194025314</v>
+        <v>0.005247614157263819</v>
       </c>
       <c r="J5">
-        <v>0.01504353194025314</v>
+        <v>0.005247614157263819</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>63.67711000000001</v>
+        <v>52.056859</v>
       </c>
       <c r="N5">
-        <v>191.03133</v>
+        <v>156.170577</v>
       </c>
       <c r="O5">
-        <v>0.4250937452800915</v>
+        <v>0.3786030350667928</v>
       </c>
       <c r="P5">
-        <v>0.4250937452800915</v>
+        <v>0.3786030350667929</v>
       </c>
       <c r="Q5">
-        <v>795.1298322132201</v>
+        <v>118.4841527452407</v>
       </c>
       <c r="R5">
-        <v>7156.168489918981</v>
+        <v>1066.357374707166</v>
       </c>
       <c r="S5">
-        <v>0.006394911334722888</v>
+        <v>0.001986762646799552</v>
       </c>
       <c r="T5">
-        <v>0.00639491133472289</v>
+        <v>0.001986762646799553</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,10 +791,10 @@
         <v>138.256042</v>
       </c>
       <c r="I6">
-        <v>0.05552108878460485</v>
+        <v>0.1062533062835484</v>
       </c>
       <c r="J6">
-        <v>0.05552108878460485</v>
+        <v>0.1062533062835484</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>13.441269</v>
+        <v>8.820647333333334</v>
       </c>
       <c r="N6">
-        <v>40.323807</v>
+        <v>26.461942</v>
       </c>
       <c r="O6">
-        <v>0.08973082133481231</v>
+        <v>0.06415146660411865</v>
       </c>
       <c r="P6">
-        <v>0.08973082133481231</v>
+        <v>0.06415146660411865</v>
       </c>
       <c r="Q6">
-        <v>619.445550465766</v>
+        <v>406.5025960615072</v>
       </c>
       <c r="R6">
-        <v>5575.009954191894</v>
+        <v>3658.523364553564</v>
       </c>
       <c r="S6">
-        <v>0.004981952898045629</v>
+        <v>0.006816305429626244</v>
       </c>
       <c r="T6">
-        <v>0.004981952898045629</v>
+        <v>0.006816305429626245</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>138.256042</v>
       </c>
       <c r="I7">
-        <v>0.05552108878460485</v>
+        <v>0.1062533062835484</v>
       </c>
       <c r="J7">
-        <v>0.05552108878460485</v>
+        <v>0.1062533062835484</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,10 +871,10 @@
         <v>164.134605</v>
       </c>
       <c r="O7">
-        <v>0.3652416280068742</v>
+        <v>0.3979101621202897</v>
       </c>
       <c r="P7">
-        <v>0.3652416280068742</v>
+        <v>0.3979101621202898</v>
       </c>
       <c r="Q7">
         <v>2521.400093614824</v>
@@ -883,10 +883,10 @@
         <v>22692.60084253341</v>
       </c>
       <c r="S7">
-        <v>0.02027861285640328</v>
+        <v>0.04227927032910354</v>
       </c>
       <c r="T7">
-        <v>0.02027861285640328</v>
+        <v>0.04227927032910355</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,10 +915,10 @@
         <v>138.256042</v>
       </c>
       <c r="I8">
-        <v>0.05552108878460485</v>
+        <v>0.1062533062835484</v>
       </c>
       <c r="J8">
-        <v>0.05552108878460485</v>
+        <v>0.1062533062835484</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>17.96553866666666</v>
+        <v>21.90816333333333</v>
       </c>
       <c r="N8">
-        <v>53.89661599999999</v>
+        <v>65.72449</v>
       </c>
       <c r="O8">
-        <v>0.119933805378222</v>
+        <v>0.1593353362087987</v>
       </c>
       <c r="P8">
-        <v>0.119933805378222</v>
+        <v>0.1593353362087987</v>
       </c>
       <c r="Q8">
-        <v>827.9480894837635</v>
+        <v>1009.645316652065</v>
       </c>
       <c r="R8">
-        <v>7451.532805353871</v>
+        <v>9086.807849868581</v>
       </c>
       <c r="S8">
-        <v>0.006658855456679781</v>
+        <v>0.01692990627998564</v>
       </c>
       <c r="T8">
-        <v>0.006658855456679782</v>
+        <v>0.01692990627998564</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,10 +977,10 @@
         <v>138.256042</v>
       </c>
       <c r="I9">
-        <v>0.05552108878460485</v>
+        <v>0.1062533062835484</v>
       </c>
       <c r="J9">
-        <v>0.05552108878460485</v>
+        <v>0.1062533062835484</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>63.67711000000001</v>
+        <v>52.056859</v>
       </c>
       <c r="N9">
-        <v>191.03133</v>
+        <v>156.170577</v>
       </c>
       <c r="O9">
-        <v>0.4250937452800915</v>
+        <v>0.3786030350667928</v>
       </c>
       <c r="P9">
-        <v>0.4250937452800915</v>
+        <v>0.3786030350667929</v>
       </c>
       <c r="Q9">
-        <v>2934.581731532874</v>
+        <v>2399.058428097359</v>
       </c>
       <c r="R9">
-        <v>26411.23558379586</v>
+        <v>21591.52585287623</v>
       </c>
       <c r="S9">
-        <v>0.02360166757347616</v>
+        <v>0.04022782424483295</v>
       </c>
       <c r="T9">
-        <v>0.02360166757347616</v>
+        <v>0.04022782424483296</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>105.0040076666667</v>
+        <v>41.187613</v>
       </c>
       <c r="H10">
-        <v>315.012023</v>
+        <v>123.562839</v>
       </c>
       <c r="I10">
-        <v>0.1265030464071941</v>
+        <v>0.09496120377532416</v>
       </c>
       <c r="J10">
-        <v>0.1265030464071941</v>
+        <v>0.09496120377532417</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>13.441269</v>
+        <v>8.820647333333334</v>
       </c>
       <c r="N10">
-        <v>40.323807</v>
+        <v>26.461942</v>
       </c>
       <c r="O10">
-        <v>0.08973082133481231</v>
+        <v>0.06415146660411865</v>
       </c>
       <c r="P10">
-        <v>0.08973082133481231</v>
+        <v>0.06415146660411865</v>
       </c>
       <c r="Q10">
-        <v>1411.387113125729</v>
+        <v>363.3014087748153</v>
       </c>
       <c r="R10">
-        <v>12702.48401813156</v>
+        <v>3269.712678973338</v>
       </c>
       <c r="S10">
-        <v>0.01135122225547341</v>
+        <v>0.006091900492679613</v>
       </c>
       <c r="T10">
-        <v>0.01135122225547341</v>
+        <v>0.006091900492679614</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>105.0040076666667</v>
+        <v>41.187613</v>
       </c>
       <c r="H11">
-        <v>315.012023</v>
+        <v>123.562839</v>
       </c>
       <c r="I11">
-        <v>0.1265030464071941</v>
+        <v>0.09496120377532416</v>
       </c>
       <c r="J11">
-        <v>0.1265030464071941</v>
+        <v>0.09496120377532417</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,22 +1119,22 @@
         <v>164.134605</v>
       </c>
       <c r="O11">
-        <v>0.3652416280068742</v>
+        <v>0.3979101621202897</v>
       </c>
       <c r="P11">
-        <v>0.3652416280068742</v>
+        <v>0.3979101621202898</v>
       </c>
       <c r="Q11">
-        <v>5744.930440595102</v>
+        <v>2253.437530215955</v>
       </c>
       <c r="R11">
-        <v>51704.37396535591</v>
+        <v>20280.93777194359</v>
       </c>
       <c r="S11">
-        <v>0.04620417861759274</v>
+        <v>0.03778602798937711</v>
       </c>
       <c r="T11">
-        <v>0.04620417861759274</v>
+        <v>0.03778602798937711</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>105.0040076666667</v>
+        <v>41.187613</v>
       </c>
       <c r="H12">
-        <v>315.012023</v>
+        <v>123.562839</v>
       </c>
       <c r="I12">
-        <v>0.1265030464071941</v>
+        <v>0.09496120377532416</v>
       </c>
       <c r="J12">
-        <v>0.1265030464071941</v>
+        <v>0.09496120377532417</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>17.96553866666666</v>
+        <v>21.90816333333333</v>
       </c>
       <c r="N12">
-        <v>53.89661599999999</v>
+        <v>65.72449</v>
       </c>
       <c r="O12">
-        <v>0.119933805378222</v>
+        <v>0.1593353362087987</v>
       </c>
       <c r="P12">
-        <v>0.119933805378222</v>
+        <v>0.1593353362087987</v>
       </c>
       <c r="Q12">
-        <v>1886.453559890463</v>
+        <v>902.3449529141234</v>
       </c>
       <c r="R12">
-        <v>16978.08203901417</v>
+        <v>8121.104576227111</v>
       </c>
       <c r="S12">
-        <v>0.01517199174755261</v>
+        <v>0.01513067533033352</v>
       </c>
       <c r="T12">
-        <v>0.01517199174755261</v>
+        <v>0.01513067533033352</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,16 +1219,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>105.0040076666667</v>
+        <v>41.187613</v>
       </c>
       <c r="H13">
-        <v>315.012023</v>
+        <v>123.562839</v>
       </c>
       <c r="I13">
-        <v>0.1265030464071941</v>
+        <v>0.09496120377532416</v>
       </c>
       <c r="J13">
-        <v>0.1265030464071941</v>
+        <v>0.09496120377532417</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>63.67711000000001</v>
+        <v>52.056859</v>
       </c>
       <c r="N13">
-        <v>191.03133</v>
+        <v>156.170577</v>
       </c>
       <c r="O13">
-        <v>0.4250937452800915</v>
+        <v>0.3786030350667928</v>
       </c>
       <c r="P13">
-        <v>0.4250937452800915</v>
+        <v>0.3786030350667929</v>
       </c>
       <c r="Q13">
-        <v>6686.351746631177</v>
+        <v>2144.097762487567</v>
       </c>
       <c r="R13">
-        <v>60177.1657196806</v>
+        <v>19296.8798623881</v>
       </c>
       <c r="S13">
-        <v>0.05377565378657538</v>
+        <v>0.03595259996293391</v>
       </c>
       <c r="T13">
-        <v>0.05377565378657539</v>
+        <v>0.03595259996293392</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,16 +1281,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>666.4749603333333</v>
+        <v>344.1819356666667</v>
       </c>
       <c r="H14">
-        <v>1999.424881</v>
+        <v>1032.545807</v>
       </c>
       <c r="I14">
-        <v>0.8029323328679479</v>
+        <v>0.7935378757838636</v>
       </c>
       <c r="J14">
-        <v>0.8029323328679479</v>
+        <v>0.7935378757838637</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1299,28 +1299,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>13.441269</v>
+        <v>8.820647333333334</v>
       </c>
       <c r="N14">
-        <v>40.323807</v>
+        <v>26.461942</v>
       </c>
       <c r="O14">
-        <v>0.08973082133481231</v>
+        <v>0.06415146660411865</v>
       </c>
       <c r="P14">
-        <v>0.08973082133481231</v>
+        <v>0.06415146660411865</v>
       </c>
       <c r="Q14">
-        <v>8958.269223604662</v>
+        <v>3035.907473019688</v>
       </c>
       <c r="R14">
-        <v>80624.42301244197</v>
+        <v>27323.16725717719</v>
       </c>
       <c r="S14">
-        <v>0.07204777770451787</v>
+        <v>0.05090661853745178</v>
       </c>
       <c r="T14">
-        <v>0.07204777770451787</v>
+        <v>0.05090661853745179</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,16 +1343,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>666.4749603333333</v>
+        <v>344.1819356666667</v>
       </c>
       <c r="H15">
-        <v>1999.424881</v>
+        <v>1032.545807</v>
       </c>
       <c r="I15">
-        <v>0.8029323328679479</v>
+        <v>0.7935378757838636</v>
       </c>
       <c r="J15">
-        <v>0.8029323328679479</v>
+        <v>0.7935378757838637</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,22 +1367,22 @@
         <v>164.134605</v>
       </c>
       <c r="O15">
-        <v>0.3652416280068742</v>
+        <v>0.3979101621202897</v>
       </c>
       <c r="P15">
-        <v>0.3652416280068742</v>
+        <v>0.3979101621202898</v>
       </c>
       <c r="Q15">
-        <v>36463.86811890078</v>
+        <v>18830.72201959458</v>
       </c>
       <c r="R15">
-        <v>328174.813070107</v>
+        <v>169476.4981763512</v>
       </c>
       <c r="S15">
-        <v>0.2932643124360467</v>
+        <v>0.3157567848017475</v>
       </c>
       <c r="T15">
-        <v>0.2932643124360467</v>
+        <v>0.3157567848017476</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,16 +1405,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>666.4749603333333</v>
+        <v>344.1819356666667</v>
       </c>
       <c r="H16">
-        <v>1999.424881</v>
+        <v>1032.545807</v>
       </c>
       <c r="I16">
-        <v>0.8029323328679479</v>
+        <v>0.7935378757838636</v>
       </c>
       <c r="J16">
-        <v>0.8029323328679479</v>
+        <v>0.7935378757838637</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1423,28 +1423,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>17.96553866666666</v>
+        <v>21.90816333333333</v>
       </c>
       <c r="N16">
-        <v>53.89661599999999</v>
+        <v>65.72449</v>
       </c>
       <c r="O16">
-        <v>0.119933805378222</v>
+        <v>0.1593353362087987</v>
       </c>
       <c r="P16">
-        <v>0.119933805378222</v>
+        <v>0.1593353362087987</v>
       </c>
       <c r="Q16">
-        <v>11973.58167023363</v>
+        <v>7540.394062968159</v>
       </c>
       <c r="R16">
-        <v>107762.2350321027</v>
+        <v>67863.54656671343</v>
       </c>
       <c r="S16">
-        <v>0.09629873014206621</v>
+        <v>0.1264386242324378</v>
       </c>
       <c r="T16">
-        <v>0.09629873014206621</v>
+        <v>0.1264386242324378</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,16 +1467,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>666.4749603333333</v>
+        <v>344.1819356666667</v>
       </c>
       <c r="H17">
-        <v>1999.424881</v>
+        <v>1032.545807</v>
       </c>
       <c r="I17">
-        <v>0.8029323328679479</v>
+        <v>0.7935378757838636</v>
       </c>
       <c r="J17">
-        <v>0.8029323328679479</v>
+        <v>0.7935378757838637</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1485,28 +1485,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>63.67711000000001</v>
+        <v>52.056859</v>
       </c>
       <c r="N17">
-        <v>191.03133</v>
+        <v>156.170577</v>
       </c>
       <c r="O17">
-        <v>0.4250937452800915</v>
+        <v>0.3786030350667928</v>
       </c>
       <c r="P17">
-        <v>0.4250937452800915</v>
+        <v>0.3786030350667929</v>
       </c>
       <c r="Q17">
-        <v>42439.19936139131</v>
+        <v>17917.03049534673</v>
       </c>
       <c r="R17">
-        <v>381952.7942525218</v>
+        <v>161253.2744581206</v>
       </c>
       <c r="S17">
-        <v>0.3413215125853171</v>
+        <v>0.3004358482122264</v>
       </c>
       <c r="T17">
-        <v>0.3413215125853171</v>
+        <v>0.3004358482122265</v>
       </c>
     </row>
   </sheetData>
